--- a/document/需求表.xlsx
+++ b/document/需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="27495" windowHeight="9705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程序" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>类型</t>
   </si>
@@ -47,6 +47,12 @@
     <t>拾取道具</t>
   </si>
   <si>
+    <t>拾取武器</t>
+  </si>
+  <si>
+    <t>拾取武器并替换当前武器</t>
+  </si>
+  <si>
     <t>使用技能</t>
   </si>
   <si>
@@ -78,6 +84,39 @@
   </si>
   <si>
     <t>攻击</t>
+  </si>
+  <si>
+    <t>角色1</t>
+  </si>
+  <si>
+    <t>右侧移动</t>
+  </si>
+  <si>
+    <t>右侧待机</t>
+  </si>
+  <si>
+    <t>右侧翻滚</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>枪火</t>
+  </si>
+  <si>
+    <t>击中特效</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>地格</t>
+  </si>
+  <si>
+    <t>障碍物</t>
+  </si>
+  <si>
+    <t>装饰物</t>
   </si>
 </sst>
 </file>
@@ -85,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -111,24 +150,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,60 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,38 +264,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,19 +315,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,61 +387,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,104 +499,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -673,6 +712,115 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,11 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,71 +863,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,196 +883,208 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1300,157 +1401,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A1" sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="18" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="19"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1460,14 +1577,125 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="16384" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="13"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
